--- a/misc/craft.xlsx
+++ b/misc/craft.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Pre industrial age</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>Small solar pannel</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>P/material</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>coal per day</t>
+  </si>
+  <si>
+    <t>AVG power</t>
+  </si>
+  <si>
+    <t>nominal power</t>
   </si>
 </sst>
 </file>
@@ -630,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E4"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -641,29 +662,100 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="C1">
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="3" spans="2:7">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4">
-        <f>C3*2</f>
-        <v>32000</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <f>C4/(12*60)</f>
-        <v>44.444444444444443</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="E4">
-        <f>D4*1.41</f>
-        <v>62.666666666666664</v>
+        <f>F4*24000/20/$C$1</f>
+        <v>1.5495000000000001</v>
+      </c>
+      <c r="F4">
+        <v>20.66</v>
+      </c>
+      <c r="G4">
+        <f>F4*1.41*2</f>
+        <v>58.261199999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <f>E5/$E$4*$C$4/C5</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f>F5*24000/20/$C$1</f>
+        <v>2.22740625</v>
+      </c>
+      <c r="F5">
+        <f>F4*C5/C4*0.5</f>
+        <v>29.69875</v>
+      </c>
+      <c r="G5">
+        <f>F5</f>
+        <v>29.69875</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <f>E6/$E$4*$C$4/C6</f>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="E6">
+        <f>F6*24000/20/$C$1</f>
+        <v>6.6822187499999997</v>
+      </c>
+      <c r="F6">
+        <f>F4*C6/C4*1.5</f>
+        <v>89.096249999999998</v>
+      </c>
+      <c r="G6">
+        <f>F6*200/113</f>
+        <v>157.69247787610618</v>
       </c>
     </row>
   </sheetData>
